--- a/final_result_dates.xlsx
+++ b/final_result_dates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orca/Local/echidna/abx_transformation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orca/Local/echidna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{160DEBA9-4B97-7C45-8E7D-67EBE4EA9CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D96C97-A083-5240-B8EF-79FC9B045BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1260" windowWidth="27640" windowHeight="16740" xr2:uid="{2B26A24B-2977-1B46-8A1F-B18B386AF218}"/>
   </bookViews>
@@ -79,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0854D05E-117B-6D4C-B73B-2112550F8E12}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="304" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,6 +424,22 @@
         <v>44585.580555555556</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
